--- a/Test/testSocCalculation.xlsx
+++ b/Test/testSocCalculation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\e-bike\Documentation.git\trunk\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{531812D2-C1E8-4C61-AB73-EB937C52C21F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A93039C-D389-43B1-80AF-F3F70DB931C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="18240" windowHeight="28440" xr2:uid="{3A9B1A09-2AD1-43B4-BE44-660E4F537C62}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="18240" windowHeight="28440" activeTab="1" xr2:uid="{3A9B1A09-2AD1-43B4-BE44-660E4F537C62}"/>
   </bookViews>
   <sheets>
     <sheet name="Test1" sheetId="1" r:id="rId1"/>
@@ -4451,8 +4451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{916486E8-2008-4EE3-900A-7C5FF6D48694}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5098,8 +5098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B491C93D-2A37-4AA2-8A3A-0253E586F7EB}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="A1:G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
